--- a/biology/Zoologie/Argyrodes_argyrodes/Argyrodes_argyrodes.xlsx
+++ b/biology/Zoologie/Argyrodes_argyrodes/Argyrodes_argyrodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Argyrode voleur
-Argyrodes argyrodes, l’Argyrode voleur, est une espèce d'araignées aranéomorphes de la famille des Theridiidae[1].
+Argyrodes argyrodes, l’Argyrode voleur, est une espèce d'araignées aranéomorphes de la famille des Theridiidae.
 Cette minuscule araignée méditerranéenne et ouest-africaine, à l'abdomen conique argenté, vit en groupe sur les toiles en nappes et géométriques d'araignées plus grosses en s'y nourrissant des plus petites proies délaissées et parfois de son hôte.
 </t>
         </is>
@@ -513,11 +525,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le bassin méditerranéen et en Afrique de l'Ouest[1].
-Elle a été introduite en Afrique du Sud, aux Seychelles et à Hawaï[1].
-En Europe, elle se rencontre au Portugal (dont à Madère), en Espagne (dont aux îles Canaries et îles Baléares), en France (uniquement dans les Alpes-Maritimes, le Var et la Corse), en Italie (dont en Sicile et en Sardaigne), à Malte, en Croatie, en Serbie, au Monténégro, en Albanie, en Grèce (dont en Crète) et à Chypre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le bassin méditerranéen et en Afrique de l'Ouest.
+Elle a été introduite en Afrique du Sud, aux Seychelles et à Hawaï.
+En Europe, elle se rencontre au Portugal (dont à Madère), en Espagne (dont aux îles Canaries et îles Baléares), en France (uniquement dans les Alpes-Maritimes, le Var et la Corse), en Italie (dont en Sicile et en Sardaigne), à Malte, en Croatie, en Serbie, au Monténégro, en Albanie, en Grèce (dont en Crète) et à Chypre.
 </t>
         </is>
       </c>
@@ -546,11 +560,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 3,3 à 4,0 mm et les femelles de 3,0 à 4,1 mm[3].
-La femelle Argyrodes argyrodes présente un céphalothorax de 1,6 mm de long pour 1,0 mm de large et un abdomen de 2,2 mm de long pour 1,9 mm de large et 2,8 mm de haut. Le céphalothorax et le sternum sont bruns, sans tubercule. L'abdomen est plus haut que long, argenté, avec une bande médiane brune sur la face antérieure, une raie transversale brune au-dessus et une tache brune apicale ; il est ventralement brun foncé avec des taches argentées. Les pattes sont brunes, la patte I étant la plus longue[4]. 
-Le mâle présente un céphalothorax de 1,7 mm de long pour 0,90 mm de large. La patte I mesure 8,7 mm de long. La partie céphalique est particulièrement relevée, avec 2 protubérances : l'antérieure sur le clypeus, étroite, avec de longues soies, la postérieure large, portant les yeux médians. Le sternum est noir. L'abdomen est plus haut que long, moins anguleux et beaucoup moins argenté que chez la femelle[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 3,3 à 4,0 mm et les femelles de 3,0 à 4,1 mm.
+La femelle Argyrodes argyrodes présente un céphalothorax de 1,6 mm de long pour 1,0 mm de large et un abdomen de 2,2 mm de long pour 1,9 mm de large et 2,8 mm de haut. Le céphalothorax et le sternum sont bruns, sans tubercule. L'abdomen est plus haut que long, argenté, avec une bande médiane brune sur la face antérieure, une raie transversale brune au-dessus et une tache brune apicale ; il est ventralement brun foncé avec des taches argentées. Les pattes sont brunes, la patte I étant la plus longue. 
+Le mâle présente un céphalothorax de 1,7 mm de long pour 0,90 mm de large. La patte I mesure 8,7 mm de long. La partie céphalique est particulièrement relevée, avec 2 protubérances : l'antérieure sur le clypeus, étroite, avec de longues soies, la postérieure large, portant les yeux médians. Le sternum est noir. L'abdomen est plus haut que long, moins anguleux et beaucoup moins argenté que chez la femelle,.
 </t>
         </is>
       </c>
@@ -579,11 +595,13 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Argyrode voleur vit exclusivement au sein des zones calcaires où les adultes des deux sexes sont visibles au printemps et en été exclusivement[4].
-Comme l'ensemble de ses congénères, cette espèce vit en groupe, en commensale cleptoparasite sur des toiles d'araignées plus grosses qu'elle, principalement sur les toiles en nappes du genre Cyrtophora mais aussi sur celles d’Holocnemus et d’Agelena ainsi que sur les toiles géométriques d’Argiope. Certaines espèces comme Cyrtophora citricola, peuvent former de vastes colonies aux toiles agrégées durables. Argyrodes argyrodes s'y nourrit des plus petites proies saisies dans la toile et délaissées par son hôte. Elle est aussi capable d'arachnophagie en se nourrissant des œufs et des juvéniles de son hôte au moment de leur éclosion, voire de les attaquer lors de leurs mues[5],[6]
-Lors de l'accouplement, le mâle Argyrodes argyrodes dépose un bouchon sur les organes génitaux de la femelle interdisant des fécondations ultérieures. Au moment de la ponte, la femelle tisse une structure en forme d'amphore inversée qui enveloppe son petit cocon brunâtre et la suspend à un des fils qui constitue la toile. L'évasement orienté par le bas sera la porte de sortie des jeunes[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Argyrode voleur vit exclusivement au sein des zones calcaires où les adultes des deux sexes sont visibles au printemps et en été exclusivement.
+Comme l'ensemble de ses congénères, cette espèce vit en groupe, en commensale cleptoparasite sur des toiles d'araignées plus grosses qu'elle, principalement sur les toiles en nappes du genre Cyrtophora mais aussi sur celles d’Holocnemus et d’Agelena ainsi que sur les toiles géométriques d’Argiope. Certaines espèces comme Cyrtophora citricola, peuvent former de vastes colonies aux toiles agrégées durables. Argyrodes argyrodes s'y nourrit des plus petites proies saisies dans la toile et délaissées par son hôte. Elle est aussi capable d'arachnophagie en se nourrissant des œufs et des juvéniles de son hôte au moment de leur éclosion, voire de les attaquer lors de leurs mues,
+Lors de l'accouplement, le mâle Argyrodes argyrodes dépose un bouchon sur les organes génitaux de la femelle interdisant des fécondations ultérieures. Au moment de la ponte, la femelle tisse une structure en forme d'amphore inversée qui enveloppe son petit cocon brunâtre et la suspend à un des fils qui constitue la toile. L'évasement orienté par le bas sera la porte de sortie des jeunes.
 </t>
         </is>
       </c>
@@ -612,12 +630,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Linyphia argyrodes par en . Elle est placée dans le genre Argyrodes par Simon en 1864[7].
-Elle est l'espèce type du genre Argyrodes[1].
-Argyrodes ammonia[8] a été placée en synonymie par Levy en 1985[3].
-L'espèce a reçu par le passé le nom vulgarisé de « Linyphie argyrode[9] ». Son nom est aujourd'hui « Argyrode voleur[5],[10] ».
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Linyphia argyrodes par en . Elle est placée dans le genre Argyrodes par Simon en 1864.
+Elle est l'espèce type du genre Argyrodes.
+Argyrodes ammonia a été placée en synonymie par Levy en 1985.
+L'espèce a reçu par le passé le nom vulgarisé de « Linyphie argyrode ». Son nom est aujourd'hui « Argyrode voleur, ».
 </t>
         </is>
       </c>
@@ -646,7 +666,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Walckenaer, 1841 : Histoire naturelle des insectes. Aptères. Paris, vol. 2, p. 1-549 (texte intégral).</t>
         </is>
